--- a/biology/Botanique/Laurier_du_Portugal/Laurier_du_Portugal.xlsx
+++ b/biology/Botanique/Laurier_du_Portugal/Laurier_du_Portugal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus lusitanica
 Le laurier du Portugal (Prunus lusitanica L.) est une espèce de plantes à fleurs de la famille des Rosaceae appartenant au genre Prunus section Laurocerasus (les lauriers-cerise). C'est un arbuste qui pousse naturellement dans les régions de climat atlantique d'Europe du Sud-Ouest (péninsule Ibérique) et d'Afrique du nord-ouest. C'est un des éléments constituant l'écosystème de la laurisylve. Il est plus rarement appelé prunier du Portugal. 
@@ -512,9 +524,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le laurier du Portugal est un arbuste caractéristique des laurisylves d'Europe du Sud-Ouest. Il y existe une sous-espèce endémique : Prunus lusitanica L. ssp. arizonica, qui est en voie de disparition dans son milieu naturel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le laurier du Portugal est un arbuste caractéristique des laurisylves d'Europe du Sud-Ouest. Il y existe une sous-espèce endémique : Prunus lusitanica L. ssp. arizonica, qui est en voie de disparition dans son milieu naturel.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Lusitanie (Lusitania en latin) était une province Romaine couvrant une grande partie de l’actuel Portugal. 
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste d'une hauteur de 3 à 8 m, atteignant parfois 20 m de haut. Les feuilles sont lancéolées, ovoïdes à oblongues, la base arrondie, les bordures finement dentées et la pointe effilée, vert foncé brillant dessus et vert-jaunâtre dessous, alternes et persistantes. Le pétiole de 2 cm est rouge sombre. Les fleurs disposées en capitules de 15 à 28 cm de long situées à l'aisselle d'une feuille sont blanches et odorantes. Les fruits sont ovoïdes, coniques à sphériques, verts puis rouge foncé[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste d'une hauteur de 3 à 8 m, atteignant parfois 20 m de haut. Les feuilles sont lancéolées, ovoïdes à oblongues, la base arrondie, les bordures finement dentées et la pointe effilée, vert foncé brillant dessus et vert-jaunâtre dessous, alternes et persistantes. Le pétiole de 2 cm est rouge sombre. Les fleurs disposées en capitules de 15 à 28 cm de long situées à l'aisselle d'une feuille sont blanches et odorantes. Les fruits sont ovoïdes, coniques à sphériques, verts puis rouge foncé.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Prunus lusitanica subsp. lusitanica. Europe continentale : Portugal, Espagne, sud-ouest de la France ;
 Prunus lusitanica subsp. azorica (Mouill.) Franco. Açores ;
@@ -639,7 +659,9 @@
           <t>Autres noms synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Laurocerasus lusitanica (L.) M.Roem.
 Cerasus lusitanica Loisel.</t>
@@ -670,9 +692,11 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un petit charançon, l'otiorrhynque peut s'attaquer à ses feuilles à l'état adulte et surtout à ses racines à l'état larvaire[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un petit charançon, l'otiorrhynque peut s'attaquer à ses feuilles à l'état adulte et surtout à ses racines à l'état larvaire.
 </t>
         </is>
       </c>
